--- a/5.26晚起 数据压缩/城市距离.xlsx
+++ b/5.26晚起 数据压缩/城市距离.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A393C38-6ADF-4DA3-915D-54DB461924AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2220" windowWidth="13845" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="2220" windowWidth="13850" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -272,6 +271,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -282,13 +318,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -300,13 +345,6 @@
   <dxfs count="7">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -314,8 +352,18 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -341,12 +389,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,24 +670,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="5.125" style="1" customWidth="1"/>
-    <col min="17" max="19" width="6.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16" width="5.08203125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="6.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="17.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.08203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -662,7 +707,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -724,7 +769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -747,10 +792,10 @@
         <v>73.877519772353907</v>
       </c>
       <c r="H3" s="1">
+        <v>98.284701484017603</v>
+      </c>
+      <c r="I3" s="1">
         <v>79.975043959999994</v>
-      </c>
-      <c r="I3" s="1">
-        <v>98.284701484017603</v>
       </c>
       <c r="J3" s="1">
         <v>105.899618191792</v>
@@ -783,7 +828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -806,10 +851,10 @@
         <v>68.260330774081893</v>
       </c>
       <c r="H4" s="1">
+        <v>94.748533634724197</v>
+      </c>
+      <c r="I4" s="1">
         <v>64.621480459174194</v>
-      </c>
-      <c r="I4" s="1">
-        <v>94.748533634724197</v>
       </c>
       <c r="J4" s="1">
         <v>113.54891195848801</v>
@@ -845,7 +890,7 @@
         <v>668.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -868,10 +913,10 @@
         <v>76.311441635344906</v>
       </c>
       <c r="H5" s="1">
+        <v>89.556376624124596</v>
+      </c>
+      <c r="I5" s="1">
         <v>129.547842316322</v>
-      </c>
-      <c r="I5" s="1">
-        <v>89.556376624124596</v>
       </c>
       <c r="J5" s="1">
         <v>67.433484234527896</v>
@@ -907,7 +952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -930,10 +975,10 @@
         <v>33.872033262333197</v>
       </c>
       <c r="H6" s="1">
+        <v>59.555883799999997</v>
+      </c>
+      <c r="I6" s="1">
         <v>83.625297333193402</v>
-      </c>
-      <c r="I6" s="1">
-        <v>59.555883799999997</v>
       </c>
       <c r="J6" s="1">
         <v>103.230977703086</v>
@@ -969,7 +1014,7 @@
         <v>785.38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -992,10 +1037,10 @@
         <v>137.234589807715</v>
       </c>
       <c r="H7" s="1">
+        <v>162.261764804921</v>
+      </c>
+      <c r="I7" s="1">
         <v>84.233332511713598</v>
-      </c>
-      <c r="I7" s="1">
-        <v>162.261764804921</v>
       </c>
       <c r="J7" s="1">
         <v>163.84220177394599</v>
@@ -1031,7 +1076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>27.238837360108199</v>
+      </c>
+      <c r="I8" s="1">
         <v>116.13319428802799</v>
-      </c>
-      <c r="I8" s="1">
-        <v>27.238837360108199</v>
       </c>
       <c r="J8" s="1">
         <v>72.637453259750899</v>
@@ -1094,27 +1139,27 @@
         <v>0.85079833965723606</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>79.975043959999994</v>
+        <v>98.284701484017603</v>
       </c>
       <c r="C9" s="1">
-        <v>64.621480459174194</v>
+        <v>94.748533634724197</v>
       </c>
       <c r="D9" s="1">
-        <v>129.547842316322</v>
+        <v>89.556376624124596</v>
       </c>
       <c r="E9" s="1">
-        <v>83.625297333193402</v>
+        <v>59.555883799999997</v>
       </c>
       <c r="F9" s="1">
-        <v>84.233332511713598</v>
+        <v>162.261764804921</v>
       </c>
       <c r="G9" s="1">
-        <v>116.13319428802799</v>
+        <v>27.238837360108199</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1123,13 +1168,13 @@
         <v>142.86573703772501</v>
       </c>
       <c r="J9" s="1">
-        <v>175.530646641077</v>
+        <v>62.020806434233499</v>
       </c>
       <c r="K9" s="1">
-        <v>195.10013639157</v>
+        <v>121.548089294844</v>
       </c>
       <c r="L9" s="1">
-        <v>51.365958931367402</v>
+        <v>168.99862118467601</v>
       </c>
       <c r="M9" s="1">
         <v>-1</v>
@@ -1138,7 +1183,7 @@
         <v>-1</v>
       </c>
       <c r="O9" s="1">
-        <v>151.98602107873501</v>
+        <v>169.92340744102</v>
       </c>
       <c r="P9" s="1">
         <v>-1</v>
@@ -1147,33 +1192,33 @@
         <v>-1</v>
       </c>
       <c r="R9" s="1">
-        <v>-1</v>
+        <v>196.68168575123099</v>
       </c>
       <c r="S9" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1">
-        <v>98.284701484017603</v>
+        <v>79.975043959999994</v>
       </c>
       <c r="C10" s="1">
-        <v>94.748533634724197</v>
+        <v>64.621480459174194</v>
       </c>
       <c r="D10" s="1">
-        <v>89.556376624124596</v>
+        <v>129.547842316322</v>
       </c>
       <c r="E10" s="1">
-        <v>59.555883799999997</v>
+        <v>83.625297333193402</v>
       </c>
       <c r="F10" s="1">
-        <v>162.261764804921</v>
+        <v>84.233332511713598</v>
       </c>
       <c r="G10" s="1">
-        <v>27.238837360108199</v>
+        <v>116.13319428802799</v>
       </c>
       <c r="H10" s="1">
         <v>142.86573703772501</v>
@@ -1182,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>62.020806434233499</v>
+        <v>175.530646641077</v>
       </c>
       <c r="K10" s="1">
-        <v>121.548089294844</v>
+        <v>195.10013639157</v>
       </c>
       <c r="L10" s="1">
-        <v>168.99862118467601</v>
+        <v>51.365958931367402</v>
       </c>
       <c r="M10" s="1">
         <v>-1</v>
@@ -1197,7 +1242,7 @@
         <v>-1</v>
       </c>
       <c r="O10" s="1">
-        <v>169.92340744102</v>
+        <v>151.98602107873501</v>
       </c>
       <c r="P10" s="1">
         <v>-1</v>
@@ -1206,13 +1251,13 @@
         <v>-1</v>
       </c>
       <c r="R10" s="1">
-        <v>196.68168575123099</v>
+        <v>-1</v>
       </c>
       <c r="S10" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1235,10 +1280,10 @@
         <v>72.637453259750899</v>
       </c>
       <c r="H11" s="1">
+        <v>62.020806434233499</v>
+      </c>
+      <c r="I11" s="1">
         <v>175.530646641077</v>
-      </c>
-      <c r="I11" s="1">
-        <v>62.020806434233499</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1271,7 +1316,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1294,10 +1339,10 @@
         <v>122.127352731564</v>
       </c>
       <c r="H12" s="1">
+        <v>121.548089294844</v>
+      </c>
+      <c r="I12" s="1">
         <v>195.10013639157</v>
-      </c>
-      <c r="I12" s="1">
-        <v>121.548089294844</v>
       </c>
       <c r="J12" s="1">
         <v>64.794871162856595</v>
@@ -1330,7 +1375,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1353,10 +1398,10 @@
         <v>145.08793584615799</v>
       </c>
       <c r="H13" s="1">
+        <v>168.99862118467601</v>
+      </c>
+      <c r="I13" s="1">
         <v>51.365958931367402</v>
-      </c>
-      <c r="I13" s="1">
-        <v>168.99862118467601</v>
       </c>
       <c r="J13" s="1">
         <v>-1</v>
@@ -1389,7 +1434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1507,7 +1552,7 @@
         <v>169.69108372125501</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1530,10 +1575,10 @@
         <v>161.39175823888201</v>
       </c>
       <c r="H16" s="1">
+        <v>169.92340744102</v>
+      </c>
+      <c r="I16" s="1">
         <v>151.98602107873501</v>
-      </c>
-      <c r="I16" s="1">
-        <v>169.92340744102</v>
       </c>
       <c r="J16" s="1">
         <v>-1</v>
@@ -1566,7 +1611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1729,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1707,10 +1752,10 @@
         <v>-1</v>
       </c>
       <c r="H19" s="1">
-        <v>-1</v>
+        <v>196.68168575123099</v>
       </c>
       <c r="I19" s="1">
-        <v>196.68168575123099</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="1">
         <v>135.77899211242701</v>
@@ -1743,7 +1788,7 @@
         <v>130.50259261592601</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1819,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1878,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1844,7 +1889,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1900,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1908,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -1872,40 +1917,38 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="R9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1916,6 +1959,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+      <formula>100</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+      <formula>80.01</formula>
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>0.1</formula>
+      <formula>80</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1924,31 +1985,13 @@
         <color theme="5"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
-      <formula>80.01</formula>
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>100</formula>
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
-      <formula>0.1</formula>
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
       <formula>0.1</formula>
       <formula>80</formula>
     </cfRule>
